--- a/data/time_series/sc_cashflow_data_for_ldi.xlsx
+++ b/data/time_series/sc_cashflow_data_for_ldi.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935E7FF8-0401-4ED8-838C-41BB2824876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E67C9-6489-4B1A-8715-A9CB3362E32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="-28910" yWindow="-50" windowWidth="29020" windowHeight="15820" activeTab="3" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
     <sheet name="2022" sheetId="4" r:id="rId2"/>
     <sheet name="2023" sheetId="5" r:id="rId3"/>
+    <sheet name="2024" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -3382,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D004E7-269A-4959-985D-EEBCCD783CFB}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4851,4 +4852,1479 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AD063-E11B-4ECA-AC85-D3CDF98DA7AA}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B2">
+        <v>72771.80032437398</v>
+      </c>
+      <c r="C2">
+        <v>177464.42698958149</v>
+      </c>
+      <c r="D2">
+        <v>965775.58824944135</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>1216011.8155633968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B3">
+        <v>306159.98416596366</v>
+      </c>
+      <c r="C3">
+        <v>750911.73545306374</v>
+      </c>
+      <c r="D3">
+        <v>3528912.8894307534</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">SUM(B3:D3)</f>
+        <v>4585984.6090497803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B4">
+        <v>671576.52076659957</v>
+      </c>
+      <c r="C4">
+        <v>1608494.8015452409</v>
+      </c>
+      <c r="D4">
+        <v>6739523.1389516024</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9019594.4612634424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B5">
+        <v>1066998.7043058577</v>
+      </c>
+      <c r="C5">
+        <v>2577009.1786195692</v>
+      </c>
+      <c r="D5">
+        <v>9935049.5052611958</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13579057.388186622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B6">
+        <v>1483701.3053002157</v>
+      </c>
+      <c r="C6">
+        <v>3653608.475762838</v>
+      </c>
+      <c r="D6">
+        <v>13097052.150619233</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>18234361.931682289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B7">
+        <v>1936560.7234457438</v>
+      </c>
+      <c r="C7">
+        <v>4763453.2448138297</v>
+      </c>
+      <c r="D7">
+        <v>16201407.37712601</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>22901421.345385581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B8">
+        <v>2375935.6398847671</v>
+      </c>
+      <c r="C8">
+        <v>5834135.6156361299</v>
+      </c>
+      <c r="D8">
+        <v>19204572.72648403</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>27414643.982004926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B9">
+        <v>2757369.9773275829</v>
+      </c>
+      <c r="C9">
+        <v>6894007.0482303184</v>
+      </c>
+      <c r="D9">
+        <v>22132462.933259532</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>31783839.958817434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B10">
+        <v>3091861.4745630282</v>
+      </c>
+      <c r="C10">
+        <v>7947923.4681398747</v>
+      </c>
+      <c r="D10">
+        <v>25003215.70856474</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36043000.65126764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B11">
+        <v>3423925.1694616345</v>
+      </c>
+      <c r="C11">
+        <v>8980680.332138367</v>
+      </c>
+      <c r="D11">
+        <v>27824584.971314386</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>40229190.472914383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B12">
+        <v>3729805.2970696134</v>
+      </c>
+      <c r="C12">
+        <v>9971165.054259561</v>
+      </c>
+      <c r="D12">
+        <v>30580692.060145281</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>44281662.411474451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B13">
+        <v>4003182.0646350044</v>
+      </c>
+      <c r="C13">
+        <v>10920236.163193503</v>
+      </c>
+      <c r="D13">
+        <v>33246237.106070064</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>48169655.333898574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B14">
+        <v>4275328.1865917668</v>
+      </c>
+      <c r="C14">
+        <v>11836946.42913226</v>
+      </c>
+      <c r="D14">
+        <v>35837952.596104912</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>51950227.21182894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B15">
+        <v>4527364.3223877735</v>
+      </c>
+      <c r="C15">
+        <v>12712192.178676147</v>
+      </c>
+      <c r="D15">
+        <v>38378570.324450068</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>55618126.825513989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B16">
+        <v>4764604.178078956</v>
+      </c>
+      <c r="C16">
+        <v>13555630.122654112</v>
+      </c>
+      <c r="D16">
+        <v>40867671.32649491</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>59187905.627227977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B17">
+        <v>4989474.6013234546</v>
+      </c>
+      <c r="C17">
+        <v>14379645.789431527</v>
+      </c>
+      <c r="D17">
+        <v>43304573.323545307</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>62673693.71430029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B18">
+        <v>5182859.7178554283</v>
+      </c>
+      <c r="C18">
+        <v>15185220.575955097</v>
+      </c>
+      <c r="D18">
+        <v>45695836.945055395</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>66063917.238865919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B19">
+        <v>5362464.2344171181</v>
+      </c>
+      <c r="C19">
+        <v>15967586.541546524</v>
+      </c>
+      <c r="D19">
+        <v>48034798.455710277</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>69364849.231673926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B20">
+        <v>5528674.4011129607</v>
+      </c>
+      <c r="C20">
+        <v>16733273.470331112</v>
+      </c>
+      <c r="D20">
+        <v>50288773.511698306</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>72550721.383142382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B21">
+        <v>5680719.8152656127</v>
+      </c>
+      <c r="C21">
+        <v>17495802.950941537</v>
+      </c>
+      <c r="D21">
+        <v>52441919.461787142</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>75618442.227994293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B22">
+        <v>5807227.3568064841</v>
+      </c>
+      <c r="C22">
+        <v>18246113.593777481</v>
+      </c>
+      <c r="D22">
+        <v>54510363.164517142</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>78563704.115101099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B23">
+        <v>5904517.6440829635</v>
+      </c>
+      <c r="C23">
+        <v>18940054.084129229</v>
+      </c>
+      <c r="D23">
+        <v>56479798.40966434</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>81324370.13787654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B24">
+        <v>5988781.5076424368</v>
+      </c>
+      <c r="C24">
+        <v>19573697.422852647</v>
+      </c>
+      <c r="D24">
+        <v>58344190.777100928</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>83906669.707596004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B25">
+        <v>6045074.3088858854</v>
+      </c>
+      <c r="C25">
+        <v>20176039.311403371</v>
+      </c>
+      <c r="D25">
+        <v>60100677.154142365</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>86321790.774431616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B26">
+        <v>6069364.3391083954</v>
+      </c>
+      <c r="C26">
+        <v>20753035.969552781</v>
+      </c>
+      <c r="D26">
+        <v>61707511.704928845</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>88529912.013590023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B27">
+        <v>6066575.9212257564</v>
+      </c>
+      <c r="C27">
+        <v>21295627.636774462</v>
+      </c>
+      <c r="D27">
+        <v>63149062.290190779</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>90511265.848190993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B28">
+        <v>6029918.3699446227</v>
+      </c>
+      <c r="C28">
+        <v>21774787.24836291</v>
+      </c>
+      <c r="D28">
+        <v>64423260.792275697</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>92227966.410583228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B29">
+        <v>5961628.1602434553</v>
+      </c>
+      <c r="C29">
+        <v>22180954.787842605</v>
+      </c>
+      <c r="D29">
+        <v>65508674.302369557</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>93651257.250455618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B30">
+        <v>5850916.2273299815</v>
+      </c>
+      <c r="C30">
+        <v>22520034.080789819</v>
+      </c>
+      <c r="D30">
+        <v>66373276.454252981</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>94744226.762372777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B31">
+        <v>5694231.5568855843</v>
+      </c>
+      <c r="C31">
+        <v>22821907.872636441</v>
+      </c>
+      <c r="D31">
+        <v>66991639.169685028</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>95507778.599207059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B32">
+        <v>5506346.2136883875</v>
+      </c>
+      <c r="C32">
+        <v>23105652.342151131</v>
+      </c>
+      <c r="D32">
+        <v>67348439.949188411</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>95960438.505027935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B33">
+        <v>5303254.8292722097</v>
+      </c>
+      <c r="C33">
+        <v>23342592.337297857</v>
+      </c>
+      <c r="D33">
+        <v>67413829.020718157</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>96059676.187288225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B34">
+        <v>5085208.3644563155</v>
+      </c>
+      <c r="C34">
+        <v>23527732.891550135</v>
+      </c>
+      <c r="D34">
+        <v>67187111.68767333</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>95800052.94367978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B35">
+        <v>4850206.4343097173</v>
+      </c>
+      <c r="C35">
+        <v>23686075.303323604</v>
+      </c>
+      <c r="D35">
+        <v>66662668.354720213</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>95198950.092353538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B36">
+        <v>4604346.8834955916</v>
+      </c>
+      <c r="C36">
+        <v>23859625.947518785</v>
+      </c>
+      <c r="D36">
+        <v>65813220.407746866</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>94277193.238761246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B37">
+        <v>4351728.3801072128</v>
+      </c>
+      <c r="C37">
+        <v>24084389.331684839</v>
+      </c>
+      <c r="D37">
+        <v>64652362.6961568</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>93088480.407948852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B38">
+        <v>4097303.8126994427</v>
+      </c>
+      <c r="C38">
+        <v>24345718.374628063</v>
+      </c>
+      <c r="D38">
+        <v>63199946.878036387</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>91642969.065363884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B39">
+        <v>3842104.5548687773</v>
+      </c>
+      <c r="C39">
+        <v>24639966.779594369</v>
+      </c>
+      <c r="D39">
+        <v>61489155.945694536</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>89971227.280157685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B40">
+        <v>3586865.1671211724</v>
+      </c>
+      <c r="C40">
+        <v>24926319.818440434</v>
+      </c>
+      <c r="D40">
+        <v>59574635.611837476</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>88087820.597399086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B41">
+        <v>3334570.7960938327</v>
+      </c>
+      <c r="C41">
+        <v>24950781.12177293</v>
+      </c>
+      <c r="D41">
+        <v>57497147.830955565</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>85782499.748822331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B42">
+        <v>3087811.9407089963</v>
+      </c>
+      <c r="C42">
+        <v>24727321.375946153</v>
+      </c>
+      <c r="D42">
+        <v>55288778.940996267</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>83103912.257651418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B43">
+        <v>2847926.4608056676</v>
+      </c>
+      <c r="C43">
+        <v>24541530.244220577</v>
+      </c>
+      <c r="D43">
+        <v>52980695.287904076</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>80370151.992930323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B44">
+        <v>2616005.9155070838</v>
+      </c>
+      <c r="C44">
+        <v>24471479.741723377</v>
+      </c>
+      <c r="D44">
+        <v>50600842.566382915</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>77688328.223613381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B45">
+        <v>2392916.8145932881</v>
+      </c>
+      <c r="C45">
+        <v>24144067.705091767</v>
+      </c>
+      <c r="D45">
+        <v>48180283.60102462</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>74717268.120709673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B46">
+        <v>2179314.0940557346</v>
+      </c>
+      <c r="C46">
+        <v>23347516.365740295</v>
+      </c>
+      <c r="D46">
+        <v>45745818.437779978</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>71272648.897576004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B47">
+        <v>1975685.8753442138</v>
+      </c>
+      <c r="C47">
+        <v>22399021.474281408</v>
+      </c>
+      <c r="D47">
+        <v>43314980.064678378</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>67689687.414304003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B48">
+        <v>1782369.4618177321</v>
+      </c>
+      <c r="C48">
+        <v>21449904.030640997</v>
+      </c>
+      <c r="D48">
+        <v>40899138.515155621</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>64131412.007614352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B49">
+        <v>1599610.7079457934</v>
+      </c>
+      <c r="C49">
+        <v>20501508.229541045</v>
+      </c>
+      <c r="D49">
+        <v>38511337.550541446</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>60612456.488028288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B50">
+        <v>1427577.6908498642</v>
+      </c>
+      <c r="C50">
+        <v>19554646.115213819</v>
+      </c>
+      <c r="D50">
+        <v>36159984.615720049</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>57142208.42178373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B51">
+        <v>1266391.6568639553</v>
+      </c>
+      <c r="C51">
+        <v>18610733.731921304</v>
+      </c>
+      <c r="D51">
+        <v>33852582.616286203</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>53729708.005071461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B52">
+        <v>1116143.6790025788</v>
+      </c>
+      <c r="C52">
+        <v>17672103.583818275</v>
+      </c>
+      <c r="D52">
+        <v>31598306.584025946</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>50386553.846846804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B53">
+        <v>976894.32707455894</v>
+      </c>
+      <c r="C53">
+        <v>16740221.484414572</v>
+      </c>
+      <c r="D53">
+        <v>29403005.907350045</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>47120121.718839176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B54">
+        <v>848673.34711659106</v>
+      </c>
+      <c r="C54">
+        <v>15816233.107635615</v>
+      </c>
+      <c r="D54">
+        <v>27269560.982332487</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>43934467.43708469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B55">
+        <v>731449.83350302675</v>
+      </c>
+      <c r="C55">
+        <v>14901327.722096797</v>
+      </c>
+      <c r="D55">
+        <v>25200939.369909637</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>40833716.92550946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B56">
+        <v>625117.50209478172</v>
+      </c>
+      <c r="C56">
+        <v>13996770.757690893</v>
+      </c>
+      <c r="D56">
+        <v>23199989.018412698</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>37821877.278198376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B57">
+        <v>529481.65742549626</v>
+      </c>
+      <c r="C57">
+        <v>13103931.270369213</v>
+      </c>
+      <c r="D57">
+        <v>21269471.504213531</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>34902884.432008237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B58">
+        <v>444250.77907996526</v>
+      </c>
+      <c r="C58">
+        <v>12224350.481825596</v>
+      </c>
+      <c r="D58">
+        <v>19412442.149142299</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>32081043.410047859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B59">
+        <v>369045.20742421946</v>
+      </c>
+      <c r="C59">
+        <v>11359762.007459346</v>
+      </c>
+      <c r="D59">
+        <v>17632181.722071242</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>29360988.936954807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B60">
+        <v>303375.62693369086</v>
+      </c>
+      <c r="C60">
+        <v>10512050.862408891</v>
+      </c>
+      <c r="D60">
+        <v>15932051.471404547</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>26747477.96074713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B61">
+        <v>246672.57897391249</v>
+      </c>
+      <c r="C61">
+        <v>9683224.8919474725</v>
+      </c>
+      <c r="D61">
+        <v>14315480.741325365</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>24245378.21224675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B62">
+        <v>198298.33444524027</v>
+      </c>
+      <c r="C62">
+        <v>8875389.4219531976</v>
+      </c>
+      <c r="D62">
+        <v>12785749.822815048</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>21859437.579213485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B63">
+        <v>157551.99018909762</v>
+      </c>
+      <c r="C63">
+        <v>8090753.1432746788</v>
+      </c>
+      <c r="D63">
+        <v>11345826.222618757</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>19594131.356082533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B64">
+        <v>123683.14037814221</v>
+      </c>
+      <c r="C64">
+        <v>7331588.994704783</v>
+      </c>
+      <c r="D64">
+        <v>9998283.3281803057</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>17453555.463263229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B65">
+        <v>95908.424161760558</v>
+      </c>
+      <c r="C65">
+        <v>6600263.3273885632</v>
+      </c>
+      <c r="D65">
+        <v>8745237.5196869206</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>15441409.271237243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B66">
+        <v>73440.373367095483</v>
+      </c>
+      <c r="C66">
+        <v>5899327.2855516253</v>
+      </c>
+      <c r="D66">
+        <v>7588221.5423531858</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>13560989.201271906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B67">
+        <v>55518.091189105384</v>
+      </c>
+      <c r="C67">
+        <v>5231517.7382389288</v>
+      </c>
+      <c r="D67">
+        <v>6528136.6722141728</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E81" si="1">SUM(B67:D67)</f>
+        <v>11815172.501642207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B68">
+        <v>41425.481155556015</v>
+      </c>
+      <c r="C68">
+        <v>4599683.4440315571</v>
+      </c>
+      <c r="D68">
+        <v>5565177.4500213917</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>10206286.375208504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B69">
+        <v>30503.164132491031</v>
+      </c>
+      <c r="C69">
+        <v>4006838.9937306931</v>
+      </c>
+      <c r="D69">
+        <v>4698621.5718206642</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>8735963.7296838481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B70">
+        <v>22157.705029166562</v>
+      </c>
+      <c r="C70">
+        <v>3456032.8391464073</v>
+      </c>
+      <c r="D70">
+        <v>3926671.2394719822</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>7404861.7836475559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B71">
+        <v>15872.660199364222</v>
+      </c>
+      <c r="C71">
+        <v>2949927.0439884998</v>
+      </c>
+      <c r="D71">
+        <v>3246390.9214468687</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>6212190.6256347327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B72">
+        <v>11208.533871991396</v>
+      </c>
+      <c r="C72">
+        <v>2490358.9631513627</v>
+      </c>
+      <c r="D72">
+        <v>2653649.3664118415</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>5155216.8634351958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B73">
+        <v>7798.4210700492404</v>
+      </c>
+      <c r="C73">
+        <v>2078138.5883057974</v>
+      </c>
+      <c r="D73">
+        <v>2143197.3756314297</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>4229134.3850072762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B74">
+        <v>5343.0363239127346</v>
+      </c>
+      <c r="C74">
+        <v>1712995.086175415</v>
+      </c>
+      <c r="D74">
+        <v>1708961.7942459458</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>3427299.9167452734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B75">
+        <v>3602.4726471449876</v>
+      </c>
+      <c r="C75">
+        <v>1393522.2886637126</v>
+      </c>
+      <c r="D75">
+        <v>1344288.1993869469</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>2741412.9606978046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B76">
+        <v>2388.2343735553541</v>
+      </c>
+      <c r="C76">
+        <v>1117476.7053035055</v>
+      </c>
+      <c r="D76">
+        <v>1042166.2714711443</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>2162031.2111482052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B77">
+        <v>1555.4265660271103</v>
+      </c>
+      <c r="C77">
+        <v>882293.87538093468</v>
+      </c>
+      <c r="D77">
+        <v>795513.46712459926</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>1679362.7690715611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B78">
+        <v>994.26323043094726</v>
+      </c>
+      <c r="C78">
+        <v>685089.4248500024</v>
+      </c>
+      <c r="D78">
+        <v>597326.51804733765</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>1283410.2061277709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B79">
+        <v>623.11627787904831</v>
+      </c>
+      <c r="C79">
+        <v>522537.33866159775</v>
+      </c>
+      <c r="D79">
+        <v>440755.36914216698</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>963915.82408164372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>73780</v>
+      </c>
+      <c r="B80">
+        <v>382.50768883598539</v>
+      </c>
+      <c r="C80">
+        <v>391005.69133188727</v>
+      </c>
+      <c r="D80">
+        <v>319287.96559253283</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>710676.164613256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>74145</v>
+      </c>
+      <c r="B81">
+        <v>229.76988138846303</v>
+      </c>
+      <c r="C81">
+        <v>286676.53228185087</v>
+      </c>
+      <c r="D81">
+        <v>226858.86975870773</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>513765.17192194704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>